--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd200r4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.4088178817401</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H2">
-        <v>63.4088178817401</v>
+        <v>198.280441</v>
       </c>
       <c r="I2">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J2">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>18.856374739741</v>
+        <v>0.2003096666666667</v>
       </c>
       <c r="N2">
-        <v>18.856374739741</v>
+        <v>0.600929</v>
       </c>
       <c r="O2">
-        <v>0.6261671217547268</v>
+        <v>0.006100846006098115</v>
       </c>
       <c r="P2">
-        <v>0.6261671217547268</v>
+        <v>0.006100846006098116</v>
       </c>
       <c r="Q2">
-        <v>1195.660431782081</v>
+        <v>13.23916301440989</v>
       </c>
       <c r="R2">
-        <v>1195.660431782081</v>
+        <v>119.152467129689</v>
       </c>
       <c r="S2">
-        <v>0.4672321438888566</v>
+        <v>0.004348929276870693</v>
       </c>
       <c r="T2">
-        <v>0.4672321438888566</v>
+        <v>0.004348929276870694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.4088178817401</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H3">
-        <v>63.4088178817401</v>
+        <v>198.280441</v>
       </c>
       <c r="I3">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J3">
-        <v>0.7461780212597526</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.2575901821144</v>
+        <v>19.02264266666667</v>
       </c>
       <c r="N3">
-        <v>11.2575901821144</v>
+        <v>57.06792799999999</v>
       </c>
       <c r="O3">
-        <v>0.3738328782452733</v>
+        <v>0.5793740036095691</v>
       </c>
       <c r="P3">
-        <v>0.3738328782452733</v>
+        <v>0.5793740036095691</v>
       </c>
       <c r="Q3">
-        <v>713.8304856449573</v>
+        <v>1257.272658977361</v>
       </c>
       <c r="R3">
-        <v>713.8304856449573</v>
+        <v>11315.45393079625</v>
       </c>
       <c r="S3">
-        <v>0.278945877370896</v>
+        <v>0.4130011745972465</v>
       </c>
       <c r="T3">
-        <v>0.278945877370896</v>
+        <v>0.4130011745972466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.75260690842871</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H4">
-        <v>2.75260690842871</v>
+        <v>198.280441</v>
       </c>
       <c r="I4">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J4">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.856374739741</v>
+        <v>13.57560533333333</v>
       </c>
       <c r="N4">
-        <v>18.856374739741</v>
+        <v>40.726816</v>
       </c>
       <c r="O4">
-        <v>0.6261671217547268</v>
+        <v>0.4134731935631211</v>
       </c>
       <c r="P4">
-        <v>0.6261671217547268</v>
+        <v>0.4134731935631212</v>
       </c>
       <c r="Q4">
-        <v>51.9041873765317</v>
+        <v>897.2590041117618</v>
       </c>
       <c r="R4">
-        <v>51.9041873765317</v>
+        <v>8075.331037005856</v>
       </c>
       <c r="S4">
-        <v>0.02028276933828135</v>
+        <v>0.2947403810701859</v>
       </c>
       <c r="T4">
-        <v>0.02028276933828135</v>
+        <v>0.294740381070186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.75260690842871</v>
+        <v>66.09348033333333</v>
       </c>
       <c r="H5">
-        <v>2.75260690842871</v>
+        <v>198.280441</v>
       </c>
       <c r="I5">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257815</v>
       </c>
       <c r="J5">
-        <v>0.03239194239621259</v>
+        <v>0.7128403622257816</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>11.2575901821144</v>
+        <v>0.034539</v>
       </c>
       <c r="N5">
-        <v>11.2575901821144</v>
+        <v>0.103617</v>
       </c>
       <c r="O5">
-        <v>0.3738328782452733</v>
+        <v>0.001051956821211605</v>
       </c>
       <c r="P5">
-        <v>0.3738328782452733</v>
+        <v>0.001051956821211605</v>
       </c>
       <c r="Q5">
-        <v>30.98772050754732</v>
+        <v>2.282802717233</v>
       </c>
       <c r="R5">
-        <v>30.98772050754732</v>
+        <v>20.545224455097</v>
       </c>
       <c r="S5">
-        <v>0.01210917305793125</v>
+        <v>0.0007498772814783618</v>
       </c>
       <c r="T5">
-        <v>0.01210917305793125</v>
+        <v>0.0007498772814783621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.56587930983901</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H6">
-        <v>2.56587930983901</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I6">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="J6">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>18.856374739741</v>
+        <v>0.2003096666666667</v>
       </c>
       <c r="N6">
-        <v>18.856374739741</v>
+        <v>0.600929</v>
       </c>
       <c r="O6">
-        <v>0.6261671217547268</v>
+        <v>0.006100846006098115</v>
       </c>
       <c r="P6">
-        <v>0.6261671217547268</v>
+        <v>0.006100846006098116</v>
       </c>
       <c r="Q6">
-        <v>48.38318180327237</v>
+        <v>0.5767839398595556</v>
       </c>
       <c r="R6">
-        <v>48.38318180327237</v>
+        <v>5.191055458736</v>
       </c>
       <c r="S6">
-        <v>0.01890685445566992</v>
+        <v>0.0001894676090742171</v>
       </c>
       <c r="T6">
-        <v>0.01890685445566992</v>
+        <v>0.0001894676090742171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.56587930983901</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H7">
-        <v>2.56587930983901</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I7">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="J7">
-        <v>0.03019458192357127</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.2575901821144</v>
+        <v>19.02264266666667</v>
       </c>
       <c r="N7">
-        <v>11.2575901821144</v>
+        <v>57.06792799999999</v>
       </c>
       <c r="O7">
-        <v>0.3738328782452733</v>
+        <v>0.5793740036095691</v>
       </c>
       <c r="P7">
-        <v>0.3738328782452733</v>
+        <v>0.5793740036095691</v>
       </c>
       <c r="Q7">
-        <v>28.88561772693411</v>
+        <v>54.77496401648354</v>
       </c>
       <c r="R7">
-        <v>28.88561772693411</v>
+        <v>492.9746761483519</v>
       </c>
       <c r="S7">
-        <v>0.01128772746790135</v>
+        <v>0.01799301393838468</v>
       </c>
       <c r="T7">
-        <v>0.01128772746790135</v>
+        <v>0.01799301393838468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2508325847054</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H8">
-        <v>16.2508325847054</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I8">
-        <v>0.1912354544204636</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="J8">
-        <v>0.1912354544204636</v>
+        <v>0.03105595664680509</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.856374739741</v>
+        <v>13.57560533333333</v>
       </c>
       <c r="N8">
-        <v>18.856374739741</v>
+        <v>40.726816</v>
       </c>
       <c r="O8">
-        <v>0.6261671217547268</v>
+        <v>0.4134731935631211</v>
       </c>
       <c r="P8">
-        <v>0.6261671217547268</v>
+        <v>0.4134731935631212</v>
       </c>
       <c r="Q8">
-        <v>306.4317890499988</v>
+        <v>39.09043063392711</v>
       </c>
       <c r="R8">
-        <v>306.4317890499988</v>
+        <v>351.8138757053439</v>
       </c>
       <c r="S8">
-        <v>0.1197453540719189</v>
+        <v>0.01284080557391234</v>
       </c>
       <c r="T8">
-        <v>0.1197453540719189</v>
+        <v>0.01284080557391234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.879461333333333</v>
+      </c>
+      <c r="H9">
+        <v>8.638383999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.03105595664680509</v>
+      </c>
+      <c r="J9">
+        <v>0.03105595664680509</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.034539</v>
+      </c>
+      <c r="N9">
+        <v>0.103617</v>
+      </c>
+      <c r="O9">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="P9">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="Q9">
+        <v>0.09945371499199999</v>
+      </c>
+      <c r="R9">
+        <v>0.8950834349279998</v>
+      </c>
+      <c r="S9">
+        <v>3.266952543385849E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.266952543385849E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.699648</v>
+      </c>
+      <c r="I10">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J10">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2003096666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.600929</v>
+      </c>
+      <c r="O10">
+        <v>0.006100846006098115</v>
+      </c>
+      <c r="P10">
+        <v>0.006100846006098116</v>
+      </c>
+      <c r="Q10">
+        <v>0.5141046414435556</v>
+      </c>
+      <c r="R10">
+        <v>4.626941772992001</v>
+      </c>
+      <c r="S10">
+        <v>0.0001688781023479713</v>
+      </c>
+      <c r="T10">
+        <v>0.0001688781023479713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.699648</v>
+      </c>
+      <c r="I11">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J11">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.02264266666667</v>
+      </c>
+      <c r="N11">
+        <v>57.06792799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.5793740036095691</v>
+      </c>
+      <c r="P11">
+        <v>0.5793740036095691</v>
+      </c>
+      <c r="Q11">
+        <v>48.82255085437155</v>
+      </c>
+      <c r="R11">
+        <v>439.402957689344</v>
+      </c>
+      <c r="S11">
+        <v>0.01603770725921141</v>
+      </c>
+      <c r="T11">
+        <v>0.01603770725921141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H12">
+        <v>7.699648</v>
+      </c>
+      <c r="I12">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J12">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.57560533333333</v>
+      </c>
+      <c r="N12">
+        <v>40.726816</v>
+      </c>
+      <c r="O12">
+        <v>0.4134731935631211</v>
+      </c>
+      <c r="P12">
+        <v>0.4134731935631212</v>
+      </c>
+      <c r="Q12">
+        <v>34.84246081786311</v>
+      </c>
+      <c r="R12">
+        <v>313.582147360768</v>
+      </c>
+      <c r="S12">
+        <v>0.01144539105410954</v>
+      </c>
+      <c r="T12">
+        <v>0.01144539105410955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>16.2508325847054</v>
-      </c>
-      <c r="H9">
-        <v>16.2508325847054</v>
-      </c>
-      <c r="I9">
-        <v>0.1912354544204636</v>
-      </c>
-      <c r="J9">
-        <v>0.1912354544204636</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.2575901821144</v>
-      </c>
-      <c r="N9">
-        <v>11.2575901821144</v>
-      </c>
-      <c r="O9">
-        <v>0.3738328782452733</v>
-      </c>
-      <c r="P9">
-        <v>0.3738328782452733</v>
-      </c>
-      <c r="Q9">
-        <v>182.9452133567643</v>
-      </c>
-      <c r="R9">
-        <v>182.9452133567643</v>
-      </c>
-      <c r="S9">
-        <v>0.07149010034854468</v>
-      </c>
-      <c r="T9">
-        <v>0.07149010034854468</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.566549333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.699648</v>
+      </c>
+      <c r="I13">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="J13">
+        <v>0.02768109573314402</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.034539</v>
+      </c>
+      <c r="N13">
+        <v>0.103617</v>
+      </c>
+      <c r="O13">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="P13">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="Q13">
+        <v>0.08864604742399999</v>
+      </c>
+      <c r="R13">
+        <v>0.797814426816</v>
+      </c>
+      <c r="S13">
+        <v>2.911931747509229E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.91193174750923E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.211393</v>
+      </c>
+      <c r="I14">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J14">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2003096666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.600929</v>
+      </c>
+      <c r="O14">
+        <v>0.006100846006098115</v>
+      </c>
+      <c r="P14">
+        <v>0.006100846006098116</v>
+      </c>
+      <c r="Q14">
+        <v>0.2144243537885556</v>
+      </c>
+      <c r="R14">
+        <v>1.929819184097</v>
+      </c>
+      <c r="S14">
+        <v>7.043620120472501E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.043620120472503E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.211393</v>
+      </c>
+      <c r="I15">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J15">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>19.02264266666667</v>
+      </c>
+      <c r="N15">
+        <v>57.06792799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.5793740036095691</v>
+      </c>
+      <c r="P15">
+        <v>0.5793740036095691</v>
+      </c>
+      <c r="Q15">
+        <v>20.36306050041156</v>
+      </c>
+      <c r="R15">
+        <v>183.267544503704</v>
+      </c>
+      <c r="S15">
+        <v>0.00668905654236151</v>
+      </c>
+      <c r="T15">
+        <v>0.006689056542361511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.211393</v>
+      </c>
+      <c r="I16">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J16">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.57560533333333</v>
+      </c>
+      <c r="N16">
+        <v>40.726816</v>
+      </c>
+      <c r="O16">
+        <v>0.4134731935631211</v>
+      </c>
+      <c r="P16">
+        <v>0.4134731935631212</v>
+      </c>
+      <c r="Q16">
+        <v>14.53220131274311</v>
+      </c>
+      <c r="R16">
+        <v>130.789811814688</v>
+      </c>
+      <c r="S16">
+        <v>0.004773679097204184</v>
+      </c>
+      <c r="T16">
+        <v>0.004773679097204187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.070464333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.211393</v>
+      </c>
+      <c r="I17">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="J17">
+        <v>0.0115453170157582</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.034539</v>
+      </c>
+      <c r="N17">
+        <v>0.103617</v>
+      </c>
+      <c r="O17">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="P17">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="Q17">
+        <v>0.03697276760900001</v>
+      </c>
+      <c r="R17">
+        <v>0.332754908481</v>
+      </c>
+      <c r="S17">
+        <v>1.214517498777724E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.214517498777725E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H18">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J18">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2003096666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.600929</v>
+      </c>
+      <c r="O18">
+        <v>0.006100846006098115</v>
+      </c>
+      <c r="P18">
+        <v>0.006100846006098116</v>
+      </c>
+      <c r="Q18">
+        <v>4.02793340884589</v>
+      </c>
+      <c r="R18">
+        <v>36.25140067961301</v>
+      </c>
+      <c r="S18">
+        <v>0.001323134816600508</v>
+      </c>
+      <c r="T18">
+        <v>0.001323134816600509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H19">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J19">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.02264266666667</v>
+      </c>
+      <c r="N19">
+        <v>57.06792799999999</v>
+      </c>
+      <c r="O19">
+        <v>0.5793740036095691</v>
+      </c>
+      <c r="P19">
+        <v>0.5793740036095691</v>
+      </c>
+      <c r="Q19">
+        <v>382.517425128113</v>
+      </c>
+      <c r="R19">
+        <v>3442.656826153016</v>
+      </c>
+      <c r="S19">
+        <v>0.125653051272365</v>
+      </c>
+      <c r="T19">
+        <v>0.125653051272365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H20">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J20">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.57560533333333</v>
+      </c>
+      <c r="N20">
+        <v>40.726816</v>
+      </c>
+      <c r="O20">
+        <v>0.4134731935631211</v>
+      </c>
+      <c r="P20">
+        <v>0.4134731935631212</v>
+      </c>
+      <c r="Q20">
+        <v>272.9854987899058</v>
+      </c>
+      <c r="R20">
+        <v>2456.869489109152</v>
+      </c>
+      <c r="S20">
+        <v>0.08967293676770906</v>
+      </c>
+      <c r="T20">
+        <v>0.0896729367677091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.10853233333334</v>
+      </c>
+      <c r="H21">
+        <v>60.32559700000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="J21">
+        <v>0.2168772683785111</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.034539</v>
+      </c>
+      <c r="N21">
+        <v>0.103617</v>
+      </c>
+      <c r="O21">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="P21">
+        <v>0.001051956821211605</v>
+      </c>
+      <c r="Q21">
+        <v>0.6945285982610001</v>
+      </c>
+      <c r="R21">
+        <v>6.250757384349001</v>
+      </c>
+      <c r="S21">
+        <v>0.0002281455218365145</v>
+      </c>
+      <c r="T21">
+        <v>0.0002281455218365146</v>
       </c>
     </row>
   </sheetData>
